--- a/projects/va_emerging_tech/data/data_virginia.xlsx
+++ b/projects/va_emerging_tech/data/data_virginia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD45678-325C-4EA8-A0DA-3F8E599A2E07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8973E410-D2FE-4DCF-977E-B3BBBDAB8537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -832,7 +832,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,6 +869,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -883,7 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -893,9 +899,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -928,6 +932,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1294,16 +1305,16 @@
       <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1312,7 +1323,7 @@
       <c r="C6" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1323,7 +1334,7 @@
       <c r="C7" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1334,7 +1345,7 @@
       <c r="C8" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1345,7 +1356,7 @@
       <c r="C9" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1353,7 +1364,7 @@
       <c r="A10" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1361,8 +1372,8 @@
       <c r="A11" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1394,7 +1405,7 @@
       <c r="A16" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1402,7 +1413,7 @@
       <c r="A17" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1410,7 +1421,7 @@
       <c r="A18" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1418,13 +1429,13 @@
       <c r="A19" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1432,7 +1443,7 @@
       <c r="A21" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1440,7 +1451,7 @@
       <c r="A22" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1448,7 +1459,7 @@
       <c r="A23" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1490,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1558,10 +1569,10 @@
       <c r="O1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1611,10 +1622,10 @@
       <c r="O2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="21" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1638,7 +1649,7 @@
       <c r="K3" t="s">
         <v>154</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="33">
         <v>14.35</v>
       </c>
     </row>
@@ -1724,7 +1735,7 @@
       <c r="K7" t="s">
         <v>154</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="33">
         <v>300.68</v>
       </c>
     </row>
@@ -2154,7 +2165,7 @@
       <c r="E12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>118</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -2194,28 +2205,28 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="14" t="s">
         <v>119</v>
       </c>
       <c r="J14">
@@ -2223,39 +2234,39 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2264,24 +2275,24 @@
       <c r="E16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2290,117 +2301,117 @@
       <c r="E17" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="14" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2420,7 +2431,7 @@
       <c r="E22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -2449,7 +2460,7 @@
       <c r="E23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -2475,7 +2486,7 @@
       <c r="E24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -2511,7 +2522,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2584,10 +2595,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="28">
         <v>29.1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2612,7 +2623,7 @@
       <c r="A4" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <v>85</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2634,10 +2645,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="28">
         <v>23.3</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2659,10 +2670,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="28">
         <v>87</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2684,10 +2695,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="29">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2709,10 +2720,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="29">
         <v>23.2</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -2734,10 +2745,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="29">
         <v>93.6</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2759,10 +2770,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="29">
         <v>61.9</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -2784,10 +2795,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="29">
         <v>50</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -2796,7 +2807,7 @@
       <c r="D11" s="5">
         <v>80</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="48" t="s">
         <v>183</v>
       </c>
       <c r="F11" s="5"/>
@@ -2804,15 +2815,15 @@
       <c r="H11" s="5">
         <v>100</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="48" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="29">
         <v>48.5</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -2834,24 +2845,24 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="30">
         <v>50</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>85</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
         <v>15</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -2859,49 +2870,49 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="30">
         <v>50</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="48">
         <v>80</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
         <v>100</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="48" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="30">
         <v>61.9</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>35.299999999999997</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
         <v>45</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -2909,24 +2920,24 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="30">
         <v>30</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <v>39.4</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14">
         <v>40</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -2934,24 +2945,24 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="30">
         <v>87</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="16">
         <v>51.7</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
         <v>45</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -2959,24 +2970,24 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="30">
         <v>87</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <v>54.1</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14">
         <v>30</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -2984,24 +2995,24 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="30">
         <v>30</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="14">
         <v>42.47</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15">
         <v>55</v>
       </c>
       <c r="I19" s="5" t="s">
@@ -3009,24 +3020,24 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="30">
         <v>23.2</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <v>20</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14">
         <v>30</v>
       </c>
       <c r="I20" s="5" t="s">
@@ -3034,24 +3045,24 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="30">
         <v>48.5</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <v>50</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14">
         <v>30</v>
       </c>
       <c r="I21" s="5" t="s">
@@ -3059,13 +3070,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="29">
         <v>50</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="48" t="s">
         <v>183</v>
       </c>
       <c r="D22" s="8">
@@ -3084,10 +3095,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="29">
         <v>23.2</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -3109,10 +3120,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="29">
         <v>46</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -3144,7 +3155,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H19"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3194,10 +3205,10 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3232,15 +3243,15 @@
       <c r="J2" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="5"/>
@@ -3248,18 +3259,20 @@
       <c r="D3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="31">
-        <v>40</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="39">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F3" s="38">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="5">
-        <v>1.1100000000000001</v>
+      <c r="H3" s="38">
+        <v>1.22</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3272,23 +3285,25 @@
       <c r="D4" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="46">
         <v>30.57</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="38">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="47">
         <v>0.59699999999999998</v>
       </c>
       <c r="I4" s="8"/>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="5"/>
@@ -3296,23 +3311,25 @@
       <c r="D5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="46">
         <v>42</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="42">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="47">
         <v>0</v>
       </c>
       <c r="I5" s="8"/>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="5"/>
@@ -3320,23 +3337,25 @@
       <c r="D6" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="31">
-        <v>13</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
+      <c r="E6" s="29">
+        <v>12.9</v>
+      </c>
+      <c r="F6" s="43">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>183</v>
       </c>
       <c r="H6" s="8">
-        <v>0.55600000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="47" t="s">
         <v>238</v>
       </c>
       <c r="B7" s="5"/>
@@ -3344,23 +3363,25 @@
       <c r="D7" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="46">
         <v>13</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="43">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="47">
         <v>0.55600000000000005</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="5"/>
@@ -3368,13 +3389,13 @@
       <c r="D8" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="31">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5">
-        <v>-2.67</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="E8" s="39">
+        <v>18.8</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>183</v>
       </c>
       <c r="H8" s="8">
@@ -3383,12 +3404,12 @@
       <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B9" s="5"/>
@@ -3396,23 +3417,25 @@
       <c r="D9" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="29">
         <v>119</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="38">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H9" s="5">
-        <v>0.55600000000000005</v>
+      <c r="H9" s="38">
+        <v>0.64</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>193</v>
       </c>
       <c r="B10" s="6"/>
@@ -3420,23 +3443,25 @@
       <c r="D10" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="32">
         <v>123</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="38">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="19">
-        <v>1.39</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="10" t="s">
+      <c r="H10" s="41">
+        <v>1.31</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>202</v>
       </c>
       <c r="B11" s="6"/>
@@ -3444,23 +3469,25 @@
       <c r="D11" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="32">
         <v>3</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="38">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="45">
         <v>2.78</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="9" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="5"/>
@@ -3468,272 +3495,272 @@
       <c r="D12" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="39">
+        <v>129.6</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="6">
-        <v>-2.65</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="19">
-        <v>0</v>
-      </c>
-      <c r="I12" s="19">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="39">
+      <c r="B13" s="37">
         <v>1633</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="35">
         <v>-4.17</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="37">
         <v>40.799999999999997</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="35">
         <v>-4.17</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H13" s="17">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="44">
         <v>4300</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>3</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="H14" s="17">
-        <v>2.78</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="10" t="s">
+      <c r="H14" s="38">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="9" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="31">
         <v>4348</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="35">
         <v>-0.44</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="31">
         <v>123</v>
       </c>
-      <c r="F15" s="37">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H15" s="17">
-        <v>1.39</v>
-      </c>
-      <c r="I15" s="37">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="H15" s="35">
+        <v>1.31</v>
+      </c>
+      <c r="I15" s="35">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="37">
         <v>4149</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="35">
         <v>-0.27</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E16" s="33">
-        <v>40</v>
-      </c>
-      <c r="F16" s="37">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="E16" s="37">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="17">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I16" s="37">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10" t="s">
+      <c r="H16" s="35">
+        <v>1.22</v>
+      </c>
+      <c r="I16" s="35">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="37">
         <v>1088</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="35">
         <v>-0.56999999999999995</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="37">
         <v>12.9</v>
       </c>
-      <c r="F17" s="37">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H17" s="17">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I17" s="37">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10" t="s">
+      <c r="H17" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="I17" s="35">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="37">
         <v>1088</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="36">
         <v>-0.62</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="37">
         <v>12.9</v>
       </c>
-      <c r="F18" s="42">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="40">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="17">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I18" s="37">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10" t="s">
+      <c r="H18" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="I18" s="35">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="37">
         <v>983</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="35">
         <v>-0.56999999999999995</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="37">
         <v>11.4</v>
       </c>
-      <c r="F19" s="37">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="35">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H19" s="17">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I19" s="37">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10" t="s">
+      <c r="H19" s="35">
+        <v>1.25</v>
+      </c>
+      <c r="I19" s="35">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="31">
         <v>1600</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="35">
         <v>-3.67</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="37">
         <v>18.8</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="38">
         <v>-3.68</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="17">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
-        <v>0</v>
-      </c>
-      <c r="J20" s="10" t="s">
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>183</v>
       </c>
       <c r="K20">
@@ -3744,34 +3771,34 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="31">
         <v>4443</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="35">
         <v>-2.97</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="37">
         <v>129.6</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="35">
         <v>-3.59</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H21" s="17">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10" t="s">
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>183</v>
       </c>
       <c r="K21">
@@ -3782,57 +3809,57 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="39">
         <v>1633</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="38">
         <v>-4.17</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="39">
         <v>40.799999999999997</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="38">
         <v>-4.17</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H22" s="19">
-        <v>0</v>
-      </c>
-      <c r="I22" s="43">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10" t="s">
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="41">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="32">
         <v>2052</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="38">
         <v>-3.99</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="32">
         <v>18</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="38">
         <v>-5.45</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>183</v>
       </c>
       <c r="H23" s="6">
@@ -3841,7 +3868,7 @@
       <c r="I23" s="6">
         <v>0</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>183</v>
       </c>
       <c r="K23">
@@ -3852,25 +3879,25 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="32">
         <v>6598</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="38">
         <v>-4.1500000000000004</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="39">
         <v>108.1</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="38">
         <v>-3.33</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>183</v>
       </c>
       <c r="H24" s="6">
@@ -3879,7 +3906,7 @@
       <c r="I24" s="6">
         <v>0</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>183</v>
       </c>
       <c r="K24">
@@ -3995,7 +4022,7 @@
         <v>0.01</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="H3" s="29">
+      <c r="H3" s="27">
         <v>2020</v>
       </c>
     </row>
@@ -4007,7 +4034,7 @@
         <v>0.67</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="H4" s="29">
+      <c r="H4" s="27">
         <v>2020</v>
       </c>
     </row>
@@ -4017,7 +4044,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="H5" s="29">
+      <c r="H5" s="27">
         <v>2020</v>
       </c>
     </row>
@@ -4027,7 +4054,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="H6" s="29">
+      <c r="H6" s="27">
         <v>2020</v>
       </c>
     </row>
@@ -4037,7 +4064,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="H7" s="29">
+      <c r="H7" s="27">
         <v>2020</v>
       </c>
     </row>
@@ -4047,7 +4074,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="H8" s="29">
+      <c r="H8" s="27">
         <v>2020</v>
       </c>
     </row>
@@ -4059,7 +4086,7 @@
         <v>0.01</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="H9" s="29">
+      <c r="H9" s="27">
         <v>2020</v>
       </c>
     </row>
@@ -4071,7 +4098,7 @@
         <v>0.01</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="H10" s="29">
+      <c r="H10" s="27">
         <v>2020</v>
       </c>
     </row>
@@ -4081,7 +4108,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="H11" s="29">
+      <c r="H11" s="27">
         <v>2020</v>
       </c>
     </row>
@@ -4089,146 +4116,146 @@
       <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="29">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="27">
         <v>2020</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="29">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="27">
         <v>2020</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="36">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="34">
         <v>300</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="29">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="27">
         <v>2020</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="16">
         <v>0.01</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16">
         <v>8000</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="29">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="27">
         <v>2020</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="29">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="27">
         <v>2020</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>0.67</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="29">
+      <c r="C17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="27">
         <v>2020</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="29">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="27">
         <v>2020</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="29">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="27">
         <v>2020</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="36">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="34">
         <v>40000</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="29">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="27">
         <v>2020</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D21">
         <v>5200</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="27">
         <v>2020</v>
       </c>
     </row>
@@ -4236,7 +4263,7 @@
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="27">
         <v>2020</v>
       </c>
     </row>
@@ -4245,7 +4272,7 @@
         <v>121</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="H23" s="29">
+      <c r="H23" s="27">
         <v>2020</v>
       </c>
     </row>
@@ -4253,7 +4280,7 @@
       <c r="A24" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="27">
         <v>2020</v>
       </c>
     </row>
@@ -4510,198 +4537,198 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>2025</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>2600</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>2030</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>2600</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>2035</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>5200</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>2040</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>5200</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>2045</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>5200</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>2050</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>5200</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+      <c r="A9" s="24">
         <v>2035</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="24">
         <v>16100</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+      <c r="A10" s="24">
         <v>2040</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>16100</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="A11" s="24">
         <v>2045</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
         <v>16100</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
+      <c r="A12" s="24">
         <v>2050</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="24">
         <v>16100</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>2035</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>2700</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>2040</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>2700</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <v>2045</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>2700</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>2050</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>2700</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4808,7 +4835,7 @@
       <c r="B3" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D3">
@@ -4825,7 +4852,7 @@
       <c r="B4" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D4">
@@ -4842,7 +4869,7 @@
       <c r="B5" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D5">
@@ -4859,7 +4886,7 @@
       <c r="B6" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D6">
@@ -4876,7 +4903,7 @@
       <c r="B7" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D7">
@@ -4893,7 +4920,7 @@
       <c r="B8" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D8">
@@ -4910,7 +4937,7 @@
       <c r="B9" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D9">
@@ -4927,7 +4954,7 @@
       <c r="B10" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D10">
@@ -4944,7 +4971,7 @@
       <c r="B11" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D11">
@@ -4961,7 +4988,7 @@
       <c r="B12" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D12">
@@ -4978,7 +5005,7 @@
       <c r="B13" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D13">
@@ -4995,7 +5022,7 @@
       <c r="B14" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D14">
@@ -5012,7 +5039,7 @@
       <c r="B15" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D15">
@@ -5029,7 +5056,7 @@
       <c r="B16" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D16">
@@ -5046,7 +5073,7 @@
       <c r="B17" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D17">
@@ -5063,7 +5090,7 @@
       <c r="B18" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D18">
@@ -5080,7 +5107,7 @@
       <c r="B19" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D19">
@@ -5097,7 +5124,7 @@
       <c r="B20" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D20">
@@ -5114,7 +5141,7 @@
       <c r="B21" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D21">
@@ -5131,7 +5158,7 @@
       <c r="B22" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D22">
@@ -5148,7 +5175,7 @@
       <c r="B23" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D23">
@@ -5165,7 +5192,7 @@
       <c r="B24" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D24">
@@ -5182,7 +5209,7 @@
       <c r="B25" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D25">
@@ -5199,7 +5226,7 @@
       <c r="B26" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D26">
@@ -5216,7 +5243,7 @@
       <c r="B27" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D27">
@@ -5233,7 +5260,7 @@
       <c r="B28" t="s">
         <v>190</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D28">
@@ -5250,7 +5277,7 @@
       <c r="B29" t="s">
         <v>190</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D29">
@@ -5267,7 +5294,7 @@
       <c r="B30" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D30">
@@ -5284,7 +5311,7 @@
       <c r="B31" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D31">
@@ -5301,7 +5328,7 @@
       <c r="B32" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D32">
@@ -5318,7 +5345,7 @@
       <c r="B33" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D33">
@@ -5335,7 +5362,7 @@
       <c r="B34" t="s">
         <v>190</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D34">
@@ -5352,7 +5379,7 @@
       <c r="B35" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D35">
@@ -5369,7 +5396,7 @@
       <c r="B36" t="s">
         <v>190</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D36">
@@ -5386,7 +5413,7 @@
       <c r="B37" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D37">
@@ -5403,7 +5430,7 @@
       <c r="B38" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D38">
@@ -5420,7 +5447,7 @@
       <c r="B39" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D39">
@@ -5437,7 +5464,7 @@
       <c r="B40" t="s">
         <v>190</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D40">
@@ -5454,7 +5481,7 @@
       <c r="B41" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D41">
@@ -5471,7 +5498,7 @@
       <c r="B42" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D42">
@@ -5488,7 +5515,7 @@
       <c r="B43" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D43">
@@ -5505,7 +5532,7 @@
       <c r="B44" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D44">
@@ -5522,7 +5549,7 @@
       <c r="B45" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D45">
@@ -5539,7 +5566,7 @@
       <c r="B46" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D46">
@@ -5556,7 +5583,7 @@
       <c r="B47" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D47">
@@ -5573,7 +5600,7 @@
       <c r="B48" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D48">
@@ -5590,7 +5617,7 @@
       <c r="B49" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D49">
@@ -5607,7 +5634,7 @@
       <c r="B50" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D50">
@@ -5624,7 +5651,7 @@
       <c r="B51" t="s">
         <v>191</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D51">
@@ -5641,7 +5668,7 @@
       <c r="B52" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D52">
@@ -5658,7 +5685,7 @@
       <c r="B53" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D53">
@@ -5675,7 +5702,7 @@
       <c r="B54" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D54">
@@ -5692,7 +5719,7 @@
       <c r="B55" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D55">
@@ -5709,7 +5736,7 @@
       <c r="B56" t="s">
         <v>191</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D56">
@@ -5726,7 +5753,7 @@
       <c r="B57" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D57">
@@ -5743,7 +5770,7 @@
       <c r="B58" t="s">
         <v>191</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D58">
@@ -5760,7 +5787,7 @@
       <c r="B59" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D59">
@@ -5777,7 +5804,7 @@
       <c r="B60" t="s">
         <v>191</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D60">
@@ -5794,7 +5821,7 @@
       <c r="B61" t="s">
         <v>191</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D61">
@@ -5811,7 +5838,7 @@
       <c r="B62" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D62">
@@ -5828,7 +5855,7 @@
       <c r="B63" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D63">
@@ -5845,7 +5872,7 @@
       <c r="B64" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D64">
@@ -5862,7 +5889,7 @@
       <c r="B65" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D65">
@@ -5879,7 +5906,7 @@
       <c r="B66" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D66">
@@ -5896,7 +5923,7 @@
       <c r="B67" t="s">
         <v>191</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D67">
@@ -5913,7 +5940,7 @@
       <c r="B68" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D68">
@@ -5930,7 +5957,7 @@
       <c r="B69" t="s">
         <v>191</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D69">
@@ -5947,7 +5974,7 @@
       <c r="B70" t="s">
         <v>191</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D70">
@@ -5964,7 +5991,7 @@
       <c r="B71" t="s">
         <v>191</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D71">
@@ -5981,7 +6008,7 @@
       <c r="B72" t="s">
         <v>191</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D72">
@@ -5998,7 +6025,7 @@
       <c r="B73" t="s">
         <v>191</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D73">
@@ -6015,7 +6042,7 @@
       <c r="B74" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D74">
@@ -6032,7 +6059,7 @@
       <c r="B75" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D75">
@@ -6049,7 +6076,7 @@
       <c r="B76" t="s">
         <v>192</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D76">
@@ -6066,7 +6093,7 @@
       <c r="B77" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D77">
@@ -6083,7 +6110,7 @@
       <c r="B78" t="s">
         <v>192</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D78">
@@ -6100,7 +6127,7 @@
       <c r="B79" t="s">
         <v>192</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D79">
@@ -6117,7 +6144,7 @@
       <c r="B80" t="s">
         <v>192</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D80">
@@ -6134,7 +6161,7 @@
       <c r="B81" t="s">
         <v>192</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D81">
@@ -6151,7 +6178,7 @@
       <c r="B82" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D82">
@@ -6168,7 +6195,7 @@
       <c r="B83" t="s">
         <v>192</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D83">
@@ -6185,7 +6212,7 @@
       <c r="B84" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D84">
@@ -6202,7 +6229,7 @@
       <c r="B85" t="s">
         <v>192</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D85">
@@ -6219,7 +6246,7 @@
       <c r="B86" t="s">
         <v>192</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D86">
@@ -6236,7 +6263,7 @@
       <c r="B87" t="s">
         <v>192</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D87">
@@ -6253,7 +6280,7 @@
       <c r="B88" t="s">
         <v>192</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D88">
@@ -6270,7 +6297,7 @@
       <c r="B89" t="s">
         <v>192</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D89">
@@ -6287,7 +6314,7 @@
       <c r="B90" t="s">
         <v>192</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D90">
@@ -6304,7 +6331,7 @@
       <c r="B91" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D91">
@@ -6321,7 +6348,7 @@
       <c r="B92" t="s">
         <v>192</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D92">
@@ -6338,7 +6365,7 @@
       <c r="B93" t="s">
         <v>192</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D93">
@@ -6355,7 +6382,7 @@
       <c r="B94" t="s">
         <v>192</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D94">
@@ -6372,7 +6399,7 @@
       <c r="B95" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D95">
@@ -6389,7 +6416,7 @@
       <c r="B96" t="s">
         <v>192</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D96">
@@ -6406,7 +6433,7 @@
       <c r="B97" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D97">
@@ -6423,7 +6450,7 @@
       <c r="B98" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D98">
@@ -6440,7 +6467,7 @@
       <c r="B99" t="s">
         <v>201</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D99">
@@ -6457,7 +6484,7 @@
       <c r="B100" t="s">
         <v>201</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D100">
@@ -6474,7 +6501,7 @@
       <c r="B101" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D101">
@@ -6491,7 +6518,7 @@
       <c r="B102" t="s">
         <v>201</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D102">
@@ -6508,7 +6535,7 @@
       <c r="B103" t="s">
         <v>201</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D103">
@@ -6525,7 +6552,7 @@
       <c r="B104" t="s">
         <v>201</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D104">
@@ -6542,7 +6569,7 @@
       <c r="B105" t="s">
         <v>201</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D105">
@@ -6559,7 +6586,7 @@
       <c r="B106" t="s">
         <v>201</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D106">
@@ -6576,7 +6603,7 @@
       <c r="B107" t="s">
         <v>201</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D107">
@@ -6593,7 +6620,7 @@
       <c r="B108" t="s">
         <v>201</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D108">
@@ -6610,7 +6637,7 @@
       <c r="B109" t="s">
         <v>201</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D109">
@@ -6627,7 +6654,7 @@
       <c r="B110" t="s">
         <v>201</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D110">
@@ -6644,7 +6671,7 @@
       <c r="B111" t="s">
         <v>201</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D111">
@@ -6661,7 +6688,7 @@
       <c r="B112" t="s">
         <v>201</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D112">
@@ -6678,7 +6705,7 @@
       <c r="B113" t="s">
         <v>201</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D113">
@@ -6695,7 +6722,7 @@
       <c r="B114" t="s">
         <v>201</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D114">
@@ -6712,7 +6739,7 @@
       <c r="B115" t="s">
         <v>201</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C115" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D115">
@@ -6729,7 +6756,7 @@
       <c r="B116" t="s">
         <v>201</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D116">
@@ -6746,7 +6773,7 @@
       <c r="B117" t="s">
         <v>201</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C117" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D117">
@@ -6763,7 +6790,7 @@
       <c r="B118" t="s">
         <v>201</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D118">
@@ -6780,7 +6807,7 @@
       <c r="B119" t="s">
         <v>201</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D119">
@@ -6797,7 +6824,7 @@
       <c r="B120" t="s">
         <v>201</v>
       </c>
-      <c r="C120" s="15" t="s">
+      <c r="C120" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D120">
@@ -6814,7 +6841,7 @@
       <c r="B121" t="s">
         <v>201</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C121" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D121">
@@ -6831,7 +6858,7 @@
       <c r="B122" t="s">
         <v>201</v>
       </c>
-      <c r="C122" s="15" t="s">
+      <c r="C122" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D122">
@@ -6848,7 +6875,7 @@
       <c r="B123" t="s">
         <v>214</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D123">
@@ -6865,7 +6892,7 @@
       <c r="B124" t="s">
         <v>214</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C124" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D124">
@@ -6882,7 +6909,7 @@
       <c r="B125" t="s">
         <v>214</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D125">
@@ -6899,7 +6926,7 @@
       <c r="B126" t="s">
         <v>214</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C126" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D126">
@@ -6916,7 +6943,7 @@
       <c r="B127" t="s">
         <v>214</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D127">
@@ -6933,7 +6960,7 @@
       <c r="B128" t="s">
         <v>214</v>
       </c>
-      <c r="C128" s="15" t="s">
+      <c r="C128" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D128">
@@ -6950,7 +6977,7 @@
       <c r="B129" t="s">
         <v>214</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="C129" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D129">
@@ -6967,7 +6994,7 @@
       <c r="B130" t="s">
         <v>214</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C130" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D130">
@@ -6984,7 +7011,7 @@
       <c r="B131" t="s">
         <v>214</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D131">
@@ -7001,7 +7028,7 @@
       <c r="B132" t="s">
         <v>214</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D132">
@@ -7018,7 +7045,7 @@
       <c r="B133" t="s">
         <v>214</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C133" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D133">
@@ -7035,7 +7062,7 @@
       <c r="B134" t="s">
         <v>214</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D134">
@@ -7052,7 +7079,7 @@
       <c r="B135" t="s">
         <v>214</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D135">
@@ -7069,7 +7096,7 @@
       <c r="B136" t="s">
         <v>214</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D136">
@@ -7086,7 +7113,7 @@
       <c r="B137" t="s">
         <v>214</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C137" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D137">
@@ -7103,7 +7130,7 @@
       <c r="B138" t="s">
         <v>214</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C138" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D138">
@@ -7120,7 +7147,7 @@
       <c r="B139" t="s">
         <v>214</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C139" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D139">
@@ -7137,7 +7164,7 @@
       <c r="B140" t="s">
         <v>214</v>
       </c>
-      <c r="C140" s="15" t="s">
+      <c r="C140" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D140">
@@ -7154,7 +7181,7 @@
       <c r="B141" t="s">
         <v>214</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D141">
@@ -7171,7 +7198,7 @@
       <c r="B142" t="s">
         <v>214</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C142" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D142">
@@ -7188,7 +7215,7 @@
       <c r="B143" t="s">
         <v>214</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C143" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D143">
@@ -7205,7 +7232,7 @@
       <c r="B144" t="s">
         <v>214</v>
       </c>
-      <c r="C144" s="15" t="s">
+      <c r="C144" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D144">
@@ -7222,7 +7249,7 @@
       <c r="B145" t="s">
         <v>214</v>
       </c>
-      <c r="C145" s="15" t="s">
+      <c r="C145" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D145">
@@ -7239,7 +7266,7 @@
       <c r="B146" t="s">
         <v>214</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C146" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D146">
@@ -7256,7 +7283,7 @@
       <c r="B147" t="s">
         <v>189</v>
       </c>
-      <c r="C147" s="15" t="s">
+      <c r="C147" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D147">
@@ -7273,7 +7300,7 @@
       <c r="B148" t="s">
         <v>189</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C148" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D148">
@@ -7290,7 +7317,7 @@
       <c r="B149" t="s">
         <v>189</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C149" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D149">
@@ -7307,7 +7334,7 @@
       <c r="B150" t="s">
         <v>189</v>
       </c>
-      <c r="C150" s="15" t="s">
+      <c r="C150" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D150">
@@ -7324,7 +7351,7 @@
       <c r="B151" t="s">
         <v>189</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="C151" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D151">
@@ -7341,7 +7368,7 @@
       <c r="B152" t="s">
         <v>189</v>
       </c>
-      <c r="C152" s="15" t="s">
+      <c r="C152" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D152">
@@ -7358,7 +7385,7 @@
       <c r="B153" t="s">
         <v>189</v>
       </c>
-      <c r="C153" s="15" t="s">
+      <c r="C153" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D153">
@@ -7375,7 +7402,7 @@
       <c r="B154" t="s">
         <v>189</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="C154" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D154">
@@ -7392,7 +7419,7 @@
       <c r="B155" t="s">
         <v>189</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C155" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D155">
@@ -7409,7 +7436,7 @@
       <c r="B156" t="s">
         <v>189</v>
       </c>
-      <c r="C156" s="15" t="s">
+      <c r="C156" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D156">
@@ -7426,7 +7453,7 @@
       <c r="B157" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="15" t="s">
+      <c r="C157" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D157">
@@ -7443,7 +7470,7 @@
       <c r="B158" t="s">
         <v>189</v>
       </c>
-      <c r="C158" s="15" t="s">
+      <c r="C158" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D158">
@@ -7460,7 +7487,7 @@
       <c r="B159" t="s">
         <v>189</v>
       </c>
-      <c r="C159" s="15" t="s">
+      <c r="C159" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D159">
@@ -7477,7 +7504,7 @@
       <c r="B160" t="s">
         <v>189</v>
       </c>
-      <c r="C160" s="15" t="s">
+      <c r="C160" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D160">
@@ -7494,7 +7521,7 @@
       <c r="B161" t="s">
         <v>189</v>
       </c>
-      <c r="C161" s="15" t="s">
+      <c r="C161" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D161">
@@ -7511,7 +7538,7 @@
       <c r="B162" t="s">
         <v>189</v>
       </c>
-      <c r="C162" s="15" t="s">
+      <c r="C162" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D162">
@@ -7528,7 +7555,7 @@
       <c r="B163" t="s">
         <v>189</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="C163" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D163">
@@ -7545,7 +7572,7 @@
       <c r="B164" t="s">
         <v>189</v>
       </c>
-      <c r="C164" s="15" t="s">
+      <c r="C164" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D164">
@@ -7562,7 +7589,7 @@
       <c r="B165" t="s">
         <v>189</v>
       </c>
-      <c r="C165" s="15" t="s">
+      <c r="C165" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D165">
@@ -7579,7 +7606,7 @@
       <c r="B166" t="s">
         <v>189</v>
       </c>
-      <c r="C166" s="15" t="s">
+      <c r="C166" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D166">
@@ -7596,7 +7623,7 @@
       <c r="B167" t="s">
         <v>189</v>
       </c>
-      <c r="C167" s="15" t="s">
+      <c r="C167" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D167">
@@ -7613,7 +7640,7 @@
       <c r="B168" t="s">
         <v>189</v>
       </c>
-      <c r="C168" s="15" t="s">
+      <c r="C168" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D168">
@@ -7630,7 +7657,7 @@
       <c r="B169" t="s">
         <v>189</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="C169" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D169">
@@ -7647,7 +7674,7 @@
       <c r="B170" t="s">
         <v>189</v>
       </c>
-      <c r="C170" s="15" t="s">
+      <c r="C170" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D170">
@@ -7664,7 +7691,7 @@
       <c r="B171" t="s">
         <v>190</v>
       </c>
-      <c r="C171" s="15" t="s">
+      <c r="C171" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D171">
@@ -7681,7 +7708,7 @@
       <c r="B172" t="s">
         <v>190</v>
       </c>
-      <c r="C172" s="15" t="s">
+      <c r="C172" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D172">
@@ -7698,7 +7725,7 @@
       <c r="B173" t="s">
         <v>190</v>
       </c>
-      <c r="C173" s="15" t="s">
+      <c r="C173" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D173">
@@ -7715,7 +7742,7 @@
       <c r="B174" t="s">
         <v>190</v>
       </c>
-      <c r="C174" s="15" t="s">
+      <c r="C174" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D174">
@@ -7732,7 +7759,7 @@
       <c r="B175" t="s">
         <v>190</v>
       </c>
-      <c r="C175" s="15" t="s">
+      <c r="C175" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D175">
@@ -7749,7 +7776,7 @@
       <c r="B176" t="s">
         <v>190</v>
       </c>
-      <c r="C176" s="15" t="s">
+      <c r="C176" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D176">
@@ -7766,7 +7793,7 @@
       <c r="B177" t="s">
         <v>190</v>
       </c>
-      <c r="C177" s="15" t="s">
+      <c r="C177" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D177">
@@ -7783,7 +7810,7 @@
       <c r="B178" t="s">
         <v>190</v>
       </c>
-      <c r="C178" s="15" t="s">
+      <c r="C178" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D178">
@@ -7800,7 +7827,7 @@
       <c r="B179" t="s">
         <v>190</v>
       </c>
-      <c r="C179" s="15" t="s">
+      <c r="C179" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D179">
@@ -7817,7 +7844,7 @@
       <c r="B180" t="s">
         <v>190</v>
       </c>
-      <c r="C180" s="15" t="s">
+      <c r="C180" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D180">
@@ -7834,7 +7861,7 @@
       <c r="B181" t="s">
         <v>190</v>
       </c>
-      <c r="C181" s="15" t="s">
+      <c r="C181" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D181">
@@ -7851,7 +7878,7 @@
       <c r="B182" t="s">
         <v>190</v>
       </c>
-      <c r="C182" s="15" t="s">
+      <c r="C182" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D182">
@@ -7868,7 +7895,7 @@
       <c r="B183" t="s">
         <v>190</v>
       </c>
-      <c r="C183" s="15" t="s">
+      <c r="C183" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D183">
@@ -7885,7 +7912,7 @@
       <c r="B184" t="s">
         <v>190</v>
       </c>
-      <c r="C184" s="15" t="s">
+      <c r="C184" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D184">
@@ -7902,7 +7929,7 @@
       <c r="B185" t="s">
         <v>190</v>
       </c>
-      <c r="C185" s="15" t="s">
+      <c r="C185" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D185">
@@ -7919,7 +7946,7 @@
       <c r="B186" t="s">
         <v>190</v>
       </c>
-      <c r="C186" s="15" t="s">
+      <c r="C186" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D186">
@@ -7936,7 +7963,7 @@
       <c r="B187" t="s">
         <v>190</v>
       </c>
-      <c r="C187" s="15" t="s">
+      <c r="C187" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D187">
@@ -7953,7 +7980,7 @@
       <c r="B188" t="s">
         <v>190</v>
       </c>
-      <c r="C188" s="15" t="s">
+      <c r="C188" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D188">
@@ -7970,7 +7997,7 @@
       <c r="B189" t="s">
         <v>190</v>
       </c>
-      <c r="C189" s="15" t="s">
+      <c r="C189" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D189">
@@ -7987,7 +8014,7 @@
       <c r="B190" t="s">
         <v>190</v>
       </c>
-      <c r="C190" s="15" t="s">
+      <c r="C190" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D190">
@@ -8004,7 +8031,7 @@
       <c r="B191" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="15" t="s">
+      <c r="C191" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D191">
@@ -8021,7 +8048,7 @@
       <c r="B192" t="s">
         <v>190</v>
       </c>
-      <c r="C192" s="15" t="s">
+      <c r="C192" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D192">
@@ -8038,7 +8065,7 @@
       <c r="B193" t="s">
         <v>190</v>
       </c>
-      <c r="C193" s="15" t="s">
+      <c r="C193" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D193">
@@ -8055,7 +8082,7 @@
       <c r="B194" t="s">
         <v>190</v>
       </c>
-      <c r="C194" s="15" t="s">
+      <c r="C194" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D194">
@@ -8072,7 +8099,7 @@
       <c r="B195" t="s">
         <v>191</v>
       </c>
-      <c r="C195" s="15" t="s">
+      <c r="C195" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D195">
@@ -8089,7 +8116,7 @@
       <c r="B196" t="s">
         <v>191</v>
       </c>
-      <c r="C196" s="15" t="s">
+      <c r="C196" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D196">
@@ -8106,7 +8133,7 @@
       <c r="B197" t="s">
         <v>191</v>
       </c>
-      <c r="C197" s="15" t="s">
+      <c r="C197" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D197">
@@ -8123,7 +8150,7 @@
       <c r="B198" t="s">
         <v>191</v>
       </c>
-      <c r="C198" s="15" t="s">
+      <c r="C198" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D198">
@@ -8140,7 +8167,7 @@
       <c r="B199" t="s">
         <v>191</v>
       </c>
-      <c r="C199" s="15" t="s">
+      <c r="C199" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D199">
@@ -8157,7 +8184,7 @@
       <c r="B200" t="s">
         <v>191</v>
       </c>
-      <c r="C200" s="15" t="s">
+      <c r="C200" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D200">
@@ -8174,7 +8201,7 @@
       <c r="B201" t="s">
         <v>191</v>
       </c>
-      <c r="C201" s="15" t="s">
+      <c r="C201" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D201">
@@ -8191,7 +8218,7 @@
       <c r="B202" t="s">
         <v>191</v>
       </c>
-      <c r="C202" s="15" t="s">
+      <c r="C202" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D202">
@@ -8208,7 +8235,7 @@
       <c r="B203" t="s">
         <v>191</v>
       </c>
-      <c r="C203" s="15" t="s">
+      <c r="C203" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D203">
@@ -8225,7 +8252,7 @@
       <c r="B204" t="s">
         <v>191</v>
       </c>
-      <c r="C204" s="15" t="s">
+      <c r="C204" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D204">
@@ -8242,7 +8269,7 @@
       <c r="B205" t="s">
         <v>191</v>
       </c>
-      <c r="C205" s="15" t="s">
+      <c r="C205" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D205">
@@ -8259,7 +8286,7 @@
       <c r="B206" t="s">
         <v>191</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="C206" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D206">
@@ -8276,7 +8303,7 @@
       <c r="B207" t="s">
         <v>191</v>
       </c>
-      <c r="C207" s="15" t="s">
+      <c r="C207" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D207">
@@ -8293,7 +8320,7 @@
       <c r="B208" t="s">
         <v>191</v>
       </c>
-      <c r="C208" s="15" t="s">
+      <c r="C208" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D208">
@@ -8310,7 +8337,7 @@
       <c r="B209" t="s">
         <v>191</v>
       </c>
-      <c r="C209" s="15" t="s">
+      <c r="C209" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D209">
@@ -8327,7 +8354,7 @@
       <c r="B210" t="s">
         <v>191</v>
       </c>
-      <c r="C210" s="15" t="s">
+      <c r="C210" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D210">
@@ -8344,7 +8371,7 @@
       <c r="B211" t="s">
         <v>191</v>
       </c>
-      <c r="C211" s="15" t="s">
+      <c r="C211" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D211">
@@ -8361,7 +8388,7 @@
       <c r="B212" t="s">
         <v>191</v>
       </c>
-      <c r="C212" s="15" t="s">
+      <c r="C212" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D212">
@@ -8378,7 +8405,7 @@
       <c r="B213" t="s">
         <v>191</v>
       </c>
-      <c r="C213" s="15" t="s">
+      <c r="C213" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D213">
@@ -8395,7 +8422,7 @@
       <c r="B214" t="s">
         <v>191</v>
       </c>
-      <c r="C214" s="15" t="s">
+      <c r="C214" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D214">
@@ -8412,7 +8439,7 @@
       <c r="B215" t="s">
         <v>191</v>
       </c>
-      <c r="C215" s="15" t="s">
+      <c r="C215" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D215">
@@ -8429,7 +8456,7 @@
       <c r="B216" t="s">
         <v>191</v>
       </c>
-      <c r="C216" s="15" t="s">
+      <c r="C216" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D216">
@@ -8446,7 +8473,7 @@
       <c r="B217" t="s">
         <v>191</v>
       </c>
-      <c r="C217" s="15" t="s">
+      <c r="C217" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D217">
@@ -8463,7 +8490,7 @@
       <c r="B218" t="s">
         <v>191</v>
       </c>
-      <c r="C218" s="15" t="s">
+      <c r="C218" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D218">
@@ -8480,7 +8507,7 @@
       <c r="B219" t="s">
         <v>192</v>
       </c>
-      <c r="C219" s="15" t="s">
+      <c r="C219" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D219">
@@ -8497,7 +8524,7 @@
       <c r="B220" t="s">
         <v>192</v>
       </c>
-      <c r="C220" s="15" t="s">
+      <c r="C220" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D220">
@@ -8514,7 +8541,7 @@
       <c r="B221" t="s">
         <v>192</v>
       </c>
-      <c r="C221" s="15" t="s">
+      <c r="C221" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D221">
@@ -8531,7 +8558,7 @@
       <c r="B222" t="s">
         <v>192</v>
       </c>
-      <c r="C222" s="15" t="s">
+      <c r="C222" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D222">
@@ -8548,7 +8575,7 @@
       <c r="B223" t="s">
         <v>192</v>
       </c>
-      <c r="C223" s="15" t="s">
+      <c r="C223" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D223">
@@ -8565,7 +8592,7 @@
       <c r="B224" t="s">
         <v>192</v>
       </c>
-      <c r="C224" s="15" t="s">
+      <c r="C224" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D224">
@@ -8582,7 +8609,7 @@
       <c r="B225" t="s">
         <v>192</v>
       </c>
-      <c r="C225" s="15" t="s">
+      <c r="C225" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D225">
@@ -8599,7 +8626,7 @@
       <c r="B226" t="s">
         <v>192</v>
       </c>
-      <c r="C226" s="15" t="s">
+      <c r="C226" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D226">
@@ -8616,7 +8643,7 @@
       <c r="B227" t="s">
         <v>192</v>
       </c>
-      <c r="C227" s="15" t="s">
+      <c r="C227" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D227">
@@ -8633,7 +8660,7 @@
       <c r="B228" t="s">
         <v>192</v>
       </c>
-      <c r="C228" s="15" t="s">
+      <c r="C228" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D228">
@@ -8650,7 +8677,7 @@
       <c r="B229" t="s">
         <v>192</v>
       </c>
-      <c r="C229" s="15" t="s">
+      <c r="C229" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D229">
@@ -8667,7 +8694,7 @@
       <c r="B230" t="s">
         <v>192</v>
       </c>
-      <c r="C230" s="15" t="s">
+      <c r="C230" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D230">
@@ -8684,7 +8711,7 @@
       <c r="B231" t="s">
         <v>192</v>
       </c>
-      <c r="C231" s="15" t="s">
+      <c r="C231" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D231">
@@ -8701,7 +8728,7 @@
       <c r="B232" t="s">
         <v>192</v>
       </c>
-      <c r="C232" s="15" t="s">
+      <c r="C232" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D232">
@@ -8718,7 +8745,7 @@
       <c r="B233" t="s">
         <v>192</v>
       </c>
-      <c r="C233" s="15" t="s">
+      <c r="C233" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D233">
@@ -8735,7 +8762,7 @@
       <c r="B234" t="s">
         <v>192</v>
       </c>
-      <c r="C234" s="15" t="s">
+      <c r="C234" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D234">
@@ -8752,7 +8779,7 @@
       <c r="B235" t="s">
         <v>192</v>
       </c>
-      <c r="C235" s="15" t="s">
+      <c r="C235" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D235">
@@ -8769,7 +8796,7 @@
       <c r="B236" t="s">
         <v>192</v>
       </c>
-      <c r="C236" s="15" t="s">
+      <c r="C236" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D236">
@@ -8786,7 +8813,7 @@
       <c r="B237" t="s">
         <v>192</v>
       </c>
-      <c r="C237" s="15" t="s">
+      <c r="C237" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D237">
@@ -8803,7 +8830,7 @@
       <c r="B238" t="s">
         <v>192</v>
       </c>
-      <c r="C238" s="15" t="s">
+      <c r="C238" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D238">
@@ -8820,7 +8847,7 @@
       <c r="B239" t="s">
         <v>192</v>
       </c>
-      <c r="C239" s="15" t="s">
+      <c r="C239" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D239">
@@ -8837,7 +8864,7 @@
       <c r="B240" t="s">
         <v>192</v>
       </c>
-      <c r="C240" s="15" t="s">
+      <c r="C240" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D240">
@@ -8854,7 +8881,7 @@
       <c r="B241" t="s">
         <v>192</v>
       </c>
-      <c r="C241" s="15" t="s">
+      <c r="C241" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D241">
@@ -8871,7 +8898,7 @@
       <c r="B242" t="s">
         <v>192</v>
       </c>
-      <c r="C242" s="15" t="s">
+      <c r="C242" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D242">
@@ -8888,7 +8915,7 @@
       <c r="B243" t="s">
         <v>201</v>
       </c>
-      <c r="C243" s="15" t="s">
+      <c r="C243" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D243">
@@ -8905,7 +8932,7 @@
       <c r="B244" t="s">
         <v>201</v>
       </c>
-      <c r="C244" s="15" t="s">
+      <c r="C244" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D244">
@@ -8922,7 +8949,7 @@
       <c r="B245" t="s">
         <v>201</v>
       </c>
-      <c r="C245" s="15" t="s">
+      <c r="C245" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D245">
@@ -8939,7 +8966,7 @@
       <c r="B246" t="s">
         <v>201</v>
       </c>
-      <c r="C246" s="15" t="s">
+      <c r="C246" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D246">
@@ -8956,7 +8983,7 @@
       <c r="B247" t="s">
         <v>201</v>
       </c>
-      <c r="C247" s="15" t="s">
+      <c r="C247" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D247">
@@ -8973,7 +9000,7 @@
       <c r="B248" t="s">
         <v>201</v>
       </c>
-      <c r="C248" s="15" t="s">
+      <c r="C248" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D248">
@@ -8990,7 +9017,7 @@
       <c r="B249" t="s">
         <v>201</v>
       </c>
-      <c r="C249" s="15" t="s">
+      <c r="C249" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D249">
@@ -9007,7 +9034,7 @@
       <c r="B250" t="s">
         <v>201</v>
       </c>
-      <c r="C250" s="15" t="s">
+      <c r="C250" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D250">
@@ -9024,7 +9051,7 @@
       <c r="B251" t="s">
         <v>201</v>
       </c>
-      <c r="C251" s="15" t="s">
+      <c r="C251" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D251">
@@ -9041,7 +9068,7 @@
       <c r="B252" t="s">
         <v>201</v>
       </c>
-      <c r="C252" s="15" t="s">
+      <c r="C252" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D252">
@@ -9058,7 +9085,7 @@
       <c r="B253" t="s">
         <v>201</v>
       </c>
-      <c r="C253" s="15" t="s">
+      <c r="C253" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D253">
@@ -9075,7 +9102,7 @@
       <c r="B254" t="s">
         <v>201</v>
       </c>
-      <c r="C254" s="15" t="s">
+      <c r="C254" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D254">
@@ -9092,7 +9119,7 @@
       <c r="B255" t="s">
         <v>201</v>
       </c>
-      <c r="C255" s="15" t="s">
+      <c r="C255" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D255">
@@ -9109,7 +9136,7 @@
       <c r="B256" t="s">
         <v>201</v>
       </c>
-      <c r="C256" s="15" t="s">
+      <c r="C256" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D256">
@@ -9126,7 +9153,7 @@
       <c r="B257" t="s">
         <v>201</v>
       </c>
-      <c r="C257" s="15" t="s">
+      <c r="C257" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D257">
@@ -9143,7 +9170,7 @@
       <c r="B258" t="s">
         <v>201</v>
       </c>
-      <c r="C258" s="15" t="s">
+      <c r="C258" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D258">
@@ -9160,7 +9187,7 @@
       <c r="B259" t="s">
         <v>201</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="C259" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D259">
@@ -9177,7 +9204,7 @@
       <c r="B260" t="s">
         <v>201</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="C260" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D260">
@@ -9194,7 +9221,7 @@
       <c r="B261" t="s">
         <v>201</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="C261" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D261">
@@ -9211,7 +9238,7 @@
       <c r="B262" t="s">
         <v>201</v>
       </c>
-      <c r="C262" s="15" t="s">
+      <c r="C262" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D262">
@@ -9228,7 +9255,7 @@
       <c r="B263" t="s">
         <v>201</v>
       </c>
-      <c r="C263" s="15" t="s">
+      <c r="C263" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D263">
@@ -9245,7 +9272,7 @@
       <c r="B264" t="s">
         <v>201</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="C264" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D264">
@@ -9262,7 +9289,7 @@
       <c r="B265" t="s">
         <v>201</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="C265" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D265">
@@ -9279,7 +9306,7 @@
       <c r="B266" t="s">
         <v>201</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="C266" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D266">
@@ -9296,7 +9323,7 @@
       <c r="B267" t="s">
         <v>214</v>
       </c>
-      <c r="C267" s="15" t="s">
+      <c r="C267" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D267">
@@ -9313,7 +9340,7 @@
       <c r="B268" t="s">
         <v>214</v>
       </c>
-      <c r="C268" s="15" t="s">
+      <c r="C268" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D268">
@@ -9330,7 +9357,7 @@
       <c r="B269" t="s">
         <v>214</v>
       </c>
-      <c r="C269" s="15" t="s">
+      <c r="C269" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D269">
@@ -9347,7 +9374,7 @@
       <c r="B270" t="s">
         <v>214</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="C270" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D270">
@@ -9364,7 +9391,7 @@
       <c r="B271" t="s">
         <v>214</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="C271" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D271">
@@ -9381,7 +9408,7 @@
       <c r="B272" t="s">
         <v>214</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="C272" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D272">
@@ -9398,7 +9425,7 @@
       <c r="B273" t="s">
         <v>214</v>
       </c>
-      <c r="C273" s="15" t="s">
+      <c r="C273" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D273">
@@ -9415,7 +9442,7 @@
       <c r="B274" t="s">
         <v>214</v>
       </c>
-      <c r="C274" s="15" t="s">
+      <c r="C274" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D274">
@@ -9432,7 +9459,7 @@
       <c r="B275" t="s">
         <v>214</v>
       </c>
-      <c r="C275" s="15" t="s">
+      <c r="C275" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D275">
@@ -9449,7 +9476,7 @@
       <c r="B276" t="s">
         <v>214</v>
       </c>
-      <c r="C276" s="15" t="s">
+      <c r="C276" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D276">
@@ -9466,7 +9493,7 @@
       <c r="B277" t="s">
         <v>214</v>
       </c>
-      <c r="C277" s="15" t="s">
+      <c r="C277" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D277">
@@ -9483,7 +9510,7 @@
       <c r="B278" t="s">
         <v>214</v>
       </c>
-      <c r="C278" s="15" t="s">
+      <c r="C278" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D278">
@@ -9500,7 +9527,7 @@
       <c r="B279" t="s">
         <v>214</v>
       </c>
-      <c r="C279" s="15" t="s">
+      <c r="C279" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D279">
@@ -9517,7 +9544,7 @@
       <c r="B280" t="s">
         <v>214</v>
       </c>
-      <c r="C280" s="15" t="s">
+      <c r="C280" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D280">
@@ -9534,7 +9561,7 @@
       <c r="B281" t="s">
         <v>214</v>
       </c>
-      <c r="C281" s="15" t="s">
+      <c r="C281" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D281">
@@ -9551,7 +9578,7 @@
       <c r="B282" t="s">
         <v>214</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="C282" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D282">
@@ -9568,7 +9595,7 @@
       <c r="B283" t="s">
         <v>214</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="C283" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D283">
@@ -9585,7 +9612,7 @@
       <c r="B284" t="s">
         <v>214</v>
       </c>
-      <c r="C284" s="15" t="s">
+      <c r="C284" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D284">
@@ -9602,7 +9629,7 @@
       <c r="B285" t="s">
         <v>214</v>
       </c>
-      <c r="C285" s="15" t="s">
+      <c r="C285" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D285">
@@ -9619,7 +9646,7 @@
       <c r="B286" t="s">
         <v>214</v>
       </c>
-      <c r="C286" s="15" t="s">
+      <c r="C286" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D286">
@@ -9636,7 +9663,7 @@
       <c r="B287" t="s">
         <v>214</v>
       </c>
-      <c r="C287" s="15" t="s">
+      <c r="C287" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D287">
@@ -9653,7 +9680,7 @@
       <c r="B288" t="s">
         <v>214</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D288">
@@ -9670,7 +9697,7 @@
       <c r="B289" t="s">
         <v>214</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="C289" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D289">
@@ -9687,7 +9714,7 @@
       <c r="B290" t="s">
         <v>214</v>
       </c>
-      <c r="C290" s="15" t="s">
+      <c r="C290" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D290">
@@ -9721,7 +9748,7 @@
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -9732,7 +9759,7 @@
       <c r="A2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="s">
@@ -9743,7 +9770,7 @@
       <c r="A3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>0.2</v>
       </c>
       <c r="C3">
@@ -9754,7 +9781,7 @@
       <c r="A4" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>0.25600000000000001</v>
       </c>
       <c r="C4">
@@ -9765,7 +9792,7 @@
       <c r="A5" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="C5">
@@ -9776,7 +9803,7 @@
       <c r="A6" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>0.2</v>
       </c>
       <c r="C6">
@@ -9787,7 +9814,7 @@
       <c r="A7" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>0.224</v>
       </c>
       <c r="C7">
@@ -9798,7 +9825,7 @@
       <c r="A8" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="C8">
@@ -10096,10 +10123,10 @@
       <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>23</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -10152,10 +10179,10 @@
       <c r="K2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -10507,7 +10534,7 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <v>0.50697570000000003</v>
       </c>
       <c r="G10" s="2">
@@ -10548,7 +10575,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="22">
         <v>0.37906770000000001</v>
       </c>
       <c r="G11" s="2">
@@ -10588,7 +10615,7 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <v>0.28218300000000002</v>
       </c>
       <c r="G12" s="2">
@@ -10628,7 +10655,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="22">
         <v>0</v>
       </c>
       <c r="G13" s="2">
@@ -10669,7 +10696,7 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>0</v>
       </c>
       <c r="G14" s="2">
@@ -10709,7 +10736,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="22">
         <v>0</v>
       </c>
       <c r="G15" s="2">
@@ -10889,114 +10916,114 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>2018</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>302.8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>2025</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>461.4</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>64.59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>2030</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>509.7</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>152.91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>2035</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>564.79999999999995</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>169.44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>2040</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>616.79999999999995</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>400.92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>2045</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>668.8</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>434.72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>2050</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>720.8</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>720.8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>2055</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>772.7</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>772.7</v>
       </c>
     </row>
@@ -12628,7 +12655,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C149" s="25"/>
+      <c r="C149" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -12724,86 +12751,86 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="19">
         <v>2025</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <v>23800</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="19">
         <v>2030</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>19600</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="19">
         <v>2035</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>14700</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="19">
         <v>2040</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>9800</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="19">
         <v>2045</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>4900</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>2050</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="21">
-        <v>0</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>224</v>
       </c>
     </row>

--- a/projects/va_emerging_tech/data/data_virginia.xlsx
+++ b/projects/va_emerging_tech/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8973E410-D2FE-4DCF-977E-B3BBBDAB8537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4FDB49-A0E7-4CD7-BBD1-815B46197E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="911" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="Fuels" sheetId="6" r:id="rId10"/>
     <sheet name="FuelsExisting" sheetId="7" r:id="rId11"/>
     <sheet name="PowerPlants" sheetId="8" r:id="rId12"/>
-    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId13"/>
-    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId14"/>
+    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId13"/>
+    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId14"/>
     <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId15"/>
     <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId16"/>
     <sheet name="MinCapacity" sheetId="22" r:id="rId17"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="243">
   <si>
     <t>connection</t>
   </si>
@@ -758,6 +758,15 @@
   </si>
   <si>
     <t>EX_OIL</t>
+  </si>
+  <si>
+    <t>NREL/TP-6A20-65298, Medium and Large buildings</t>
+  </si>
+  <si>
+    <t>ELC_OFFSHORE</t>
+  </si>
+  <si>
+    <t>OFFSHORE_TRANS</t>
   </si>
 </sst>
 </file>
@@ -1499,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="XEN1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="XFD7" sqref="XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1521,9 +1530,10 @@
     <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1575,8 +1585,14 @@
       <c r="Q1" s="20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1628,8 +1644,14 @@
       <c r="Q2" s="21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -1652,8 +1674,9 @@
       <c r="P3" s="33">
         <v>14.35</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="33"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1676,7 +1699,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1690,7 +1713,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -1713,7 +1736,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -1738,8 +1761,11 @@
       <c r="P7" s="33">
         <v>300.68</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="33">
+        <v>19890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1753,7 +1779,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1767,7 +1793,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -1838,14 +1864,14 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -2396,8 +2422,8 @@
       <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>102</v>
+      <c r="C21" s="35" t="s">
+        <v>241</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>118</v>
@@ -2477,8 +2503,8 @@
       <c r="B24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>102</v>
+      <c r="C24" s="38" t="s">
+        <v>241</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>118</v>
@@ -2518,643 +2544,10 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="28">
-        <v>29.1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="8">
-        <v>39.4</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="5">
-        <v>40</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="28">
-        <v>85</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="8">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6">
-        <v>45</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="28">
-        <v>23.3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="8">
-        <v>90</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="5">
-        <v>100</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="28">
-        <v>87</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="8">
-        <v>54.1</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="5">
-        <v>30</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="29">
-        <v>30</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" s="5">
-        <v>54.1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5">
-        <v>30</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="29">
-        <v>23.2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="5">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5">
-        <v>30</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="29">
-        <v>93.6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="5">
-        <v>32.6</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5">
-        <v>100</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="29">
-        <v>61.9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="5">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8">
-        <v>45</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="29">
-        <v>50</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="5">
-        <v>80</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="5">
-        <v>100</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="29">
-        <v>48.5</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="5">
-        <v>50</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="5">
-        <v>30</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="30">
-        <v>50</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="14">
-        <v>85</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
-        <v>15</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="30">
-        <v>50</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="48">
-        <v>80</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14">
-        <v>100</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="30">
-        <v>61.9</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="14">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15">
-        <v>45</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="30">
-        <v>30</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="16">
-        <v>39.4</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
-        <v>40</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="30">
-        <v>87</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="16">
-        <v>51.7</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
-        <v>45</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="30">
-        <v>87</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="14">
-        <v>54.1</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14">
-        <v>30</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="30">
-        <v>30</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="14">
-        <v>42.47</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15">
-        <v>55</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="30">
-        <v>23.2</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="14">
-        <v>20</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14">
-        <v>30</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="30">
-        <v>48.5</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="14">
-        <v>50</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14">
-        <v>30</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="29">
-        <v>50</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="8">
-        <v>85</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8">
-        <v>15</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="29">
-        <v>23.2</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23" s="5">
-        <v>20</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8">
-        <v>30</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="29">
-        <v>46</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="5">
-        <v>50</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8">
-        <v>30</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -3929,12 +3322,645 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="28">
+        <v>29.1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="8">
+        <v>39.4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="5">
+        <v>40</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="28">
+        <v>85</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="8">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6">
+        <v>45</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="28">
+        <v>23.3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="8">
+        <v>90</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5">
+        <v>100</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="28">
+        <v>87</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="8">
+        <v>54.1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="5">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="29">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="5">
+        <v>54.1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="29">
+        <v>23.2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="5">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="29">
+        <v>93.6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5">
+        <v>100</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="29">
+        <v>61.9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="5">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8">
+        <v>45</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="29">
+        <v>50</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="5">
+        <v>80</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="5">
+        <v>100</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="29">
+        <v>48.5</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="5">
+        <v>50</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="5">
+        <v>30</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="30">
+        <v>50</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="14">
+        <v>85</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
+        <v>15</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="30">
+        <v>50</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="48">
+        <v>80</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
+        <v>100</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="30">
+        <v>61.9</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="14">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
+        <v>45</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="30">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="16">
+        <v>39.4</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14">
+        <v>40</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="30">
+        <v>87</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="16">
+        <v>51.7</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
+        <v>45</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="30">
+        <v>87</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="14">
+        <v>54.1</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14">
+        <v>30</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="30">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="14">
+        <v>42.47</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15">
+        <v>55</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="30">
+        <v>23.2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="14">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14">
+        <v>30</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="30">
+        <v>48.5</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="14">
+        <v>50</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14">
+        <v>30</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="29">
+        <v>50</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="8">
+        <v>85</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
+        <v>15</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="29">
+        <v>23.2</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="5">
+        <v>20</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
+        <v>30</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="29">
+        <v>46</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="5">
+        <v>50</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8">
+        <v>30</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4270,6 +4296,12 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>121</v>
+      </c>
+      <c r="D23" s="33">
+        <v>10200</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>240</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="27">
@@ -10066,11 +10098,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10760,6 +10790,41 @@
         <v>2018</v>
       </c>
       <c r="Q15" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>30</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2018</v>
+      </c>
+      <c r="Q16" s="2">
         <v>2050</v>
       </c>
     </row>

--- a/projects/va_emerging_tech/data/data_virginia.xlsx
+++ b/projects/va_emerging_tech/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4FDB49-A0E7-4CD7-BBD1-815B46197E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78ECEA1-0182-4C51-8E18-F78BFE3EBA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="911" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="Fuels" sheetId="6" r:id="rId10"/>
     <sheet name="FuelsExisting" sheetId="7" r:id="rId11"/>
     <sheet name="PowerPlants" sheetId="8" r:id="rId12"/>
-    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId13"/>
-    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId14"/>
+    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId13"/>
+    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId14"/>
     <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId15"/>
     <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId16"/>
     <sheet name="MinCapacity" sheetId="22" r:id="rId17"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="247">
   <si>
     <t>connection</t>
   </si>
@@ -754,19 +754,31 @@
     <t>Ref_MinCapacity</t>
   </si>
   <si>
-    <t>EX_NG_GT_ST</t>
-  </si>
-  <si>
     <t>EX_OIL</t>
   </si>
   <si>
+    <t>EX_NG_CT</t>
+  </si>
+  <si>
+    <t>Dominion GT + ST</t>
+  </si>
+  <si>
+    <t>ELC_OFFSHORE</t>
+  </si>
+  <si>
+    <t>OFFSHORE_TRANS</t>
+  </si>
+  <si>
     <t>NREL/TP-6A20-65298, Medium and Large buildings</t>
   </si>
   <si>
-    <t>ELC_OFFSHORE</t>
-  </si>
-  <si>
-    <t>OFFSHORE_TRANS</t>
+    <t>NREL ATB, 2018</t>
+  </si>
+  <si>
+    <t>NREL ATB, 2025</t>
+  </si>
+  <si>
+    <t>1% of VA land area</t>
   </si>
 </sst>
 </file>
@@ -778,7 +790,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,15 +845,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,12 +867,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -880,7 +879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -919,35 +918,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1510,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="XEN1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="XFD7" sqref="XFD7"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1531,6 +1531,7 @@
     <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -1579,16 +1580,16 @@
       <c r="O1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1638,16 +1639,16 @@
       <c r="O2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="31" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1655,12 +1656,13 @@
       <c r="A3" t="s">
         <v>114</v>
       </c>
-      <c r="B3">
-        <v>5</v>
+      <c r="B3" s="2">
+        <v>2.86</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" s="25"/>
       <c r="H3" s="2">
         <v>0</v>
       </c>
@@ -1671,21 +1673,21 @@
       <c r="K3" t="s">
         <v>154</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="31">
         <v>14.35</v>
       </c>
-      <c r="R3" s="33"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>95</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.76</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
+      <c r="D4" s="25"/>
       <c r="H4">
         <v>90.37</v>
       </c>
@@ -1703,7 +1705,7 @@
       <c r="A5" t="s">
         <v>94</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="J5">
@@ -1717,12 +1719,13 @@
       <c r="A6" t="s">
         <v>115</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>11.3</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
+      <c r="D6" s="25"/>
       <c r="H6">
         <v>67.58</v>
       </c>
@@ -1740,12 +1743,13 @@
       <c r="A7" t="s">
         <v>91</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>3.9140000000000001</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7" s="25"/>
       <c r="H7">
         <v>50.3</v>
       </c>
@@ -1758,10 +1762,10 @@
       <c r="K7" t="s">
         <v>154</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="31">
         <v>300.68</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="31">
         <v>19890</v>
       </c>
     </row>
@@ -1769,7 +1773,7 @@
       <c r="A8" t="s">
         <v>92</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="J8">
@@ -1783,7 +1787,7 @@
       <c r="A9" t="s">
         <v>93</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="J9">
@@ -1797,9 +1801,13 @@
       <c r="A10" t="s">
         <v>185</v>
       </c>
-      <c r="B10">
-        <v>1.94</v>
-      </c>
+      <c r="B10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="25"/>
       <c r="J10">
         <v>50</v>
       </c>
@@ -1863,15 +1871,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1963,10 +1972,13 @@
       <c r="H3" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I3">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>174</v>
@@ -1988,6 +2000,9 @@
       </c>
       <c r="H4" s="5" t="s">
         <v>118</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.91</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2015,6 +2030,9 @@
       <c r="H5" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I5">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -2041,10 +2059,13 @@
       <c r="H6" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I6">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>175</v>
@@ -2066,6 +2087,9 @@
       </c>
       <c r="H7" s="5" t="s">
         <v>118</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0.91</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2093,6 +2117,9 @@
       <c r="H8" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I8">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -2119,6 +2146,9 @@
       <c r="H9" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I9">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -2145,6 +2175,9 @@
       <c r="H10" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I10">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -2171,6 +2204,9 @@
       <c r="H11" s="5" t="s">
         <v>119</v>
       </c>
+      <c r="I11" s="25">
+        <v>0.75</v>
+      </c>
       <c r="J11">
         <v>12</v>
       </c>
@@ -2200,15 +2236,18 @@
       <c r="H12" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I12">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2225,6 +2264,9 @@
       </c>
       <c r="H13" s="5" t="s">
         <v>119</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.75</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -2255,6 +2297,9 @@
       <c r="H14" s="14" t="s">
         <v>119</v>
       </c>
+      <c r="I14">
+        <v>0.75</v>
+      </c>
       <c r="J14">
         <v>4</v>
       </c>
@@ -2284,6 +2329,9 @@
       <c r="H15" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="I15" s="25">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
@@ -2310,6 +2358,9 @@
       <c r="H16" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="I16">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
@@ -2336,6 +2387,9 @@
       <c r="H17" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="I17">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
@@ -2362,6 +2416,9 @@
       <c r="H18" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="I18">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
@@ -2388,6 +2445,9 @@
       <c r="H19" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="I19">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
@@ -2414,6 +2474,9 @@
       <c r="H20" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="I20">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
@@ -2422,7 +2485,7 @@
       <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="33" t="s">
         <v>241</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -2439,6 +2502,9 @@
       </c>
       <c r="H21" s="14" t="s">
         <v>118</v>
+      </c>
+      <c r="I21">
+        <v>0.36</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2466,6 +2532,9 @@
       <c r="H22" s="5" t="s">
         <v>119</v>
       </c>
+      <c r="I22">
+        <v>0.75</v>
+      </c>
       <c r="J22">
         <v>4</v>
       </c>
@@ -2495,6 +2564,9 @@
       <c r="H23" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I23">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -2503,7 +2575,7 @@
       <c r="B24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="33" t="s">
         <v>241</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2520,6 +2592,9 @@
       </c>
       <c r="H24" s="5" t="s">
         <v>118</v>
+      </c>
+      <c r="I24">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -2544,790 +2619,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:L25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="39">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="F3" s="38">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H3" s="38">
-        <v>1.22</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="46">
-        <v>30.57</v>
-      </c>
-      <c r="F4" s="38">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="47">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="46">
-        <v>42</v>
-      </c>
-      <c r="F5" s="42">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H5" s="47">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="29">
-        <v>12.9</v>
-      </c>
-      <c r="F6" s="43">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="46">
-        <v>13</v>
-      </c>
-      <c r="F7" s="43">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H7" s="47">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="39">
-        <v>18.8</v>
-      </c>
-      <c r="F8" s="38">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="29">
-        <v>119</v>
-      </c>
-      <c r="F9" s="38">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H9" s="38">
-        <v>0.64</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="32">
-        <v>123</v>
-      </c>
-      <c r="F10" s="38">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="41">
-        <v>1.31</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="32">
-        <v>3</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H11" s="45">
-        <v>2.78</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E12" s="39">
-        <v>129.6</v>
-      </c>
-      <c r="F12" s="38">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="17">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="37">
-        <v>1633</v>
-      </c>
-      <c r="C13" s="35">
-        <v>-4.17</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="37">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="F13" s="35">
-        <v>-4.17</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="44">
-        <v>4300</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="32">
-        <v>3</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H14" s="38">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="31">
-        <v>4348</v>
-      </c>
-      <c r="C15" s="35">
-        <v>-0.44</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="31">
-        <v>123</v>
-      </c>
-      <c r="F15" s="35">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="35">
-        <v>1.31</v>
-      </c>
-      <c r="I15" s="35">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="37">
-        <v>4149</v>
-      </c>
-      <c r="C16" s="35">
-        <v>-0.27</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" s="37">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="F16" s="35">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="35">
-        <v>1.22</v>
-      </c>
-      <c r="I16" s="35">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="37">
-        <v>1088</v>
-      </c>
-      <c r="C17" s="35">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" s="37">
-        <v>12.9</v>
-      </c>
-      <c r="F17" s="35">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="35">
-        <v>0.6</v>
-      </c>
-      <c r="I17" s="35">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="37">
-        <v>1088</v>
-      </c>
-      <c r="C18" s="36">
-        <v>-0.62</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="37">
-        <v>12.9</v>
-      </c>
-      <c r="F18" s="40">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H18" s="35">
-        <v>0.6</v>
-      </c>
-      <c r="I18" s="35">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="37">
-        <v>983</v>
-      </c>
-      <c r="C19" s="35">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="37">
-        <v>11.4</v>
-      </c>
-      <c r="F19" s="35">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="35">
-        <v>1.25</v>
-      </c>
-      <c r="I19" s="35">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="31">
-        <v>1600</v>
-      </c>
-      <c r="C20" s="35">
-        <v>-3.67</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E20" s="37">
-        <v>18.8</v>
-      </c>
-      <c r="F20" s="38">
-        <v>-3.68</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="K20">
-        <v>0.08</v>
-      </c>
-      <c r="L20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="31">
-        <v>4443</v>
-      </c>
-      <c r="C21" s="35">
-        <v>-2.97</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="37">
-        <v>129.6</v>
-      </c>
-      <c r="F21" s="35">
-        <v>-3.59</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="K21">
-        <v>0.08</v>
-      </c>
-      <c r="L21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="39">
-        <v>1633</v>
-      </c>
-      <c r="C22" s="38">
-        <v>-4.17</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="39">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="F22" s="38">
-        <v>-4.17</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="17">
-        <v>0</v>
-      </c>
-      <c r="I22" s="41">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="32">
-        <v>2052</v>
-      </c>
-      <c r="C23" s="38">
-        <v>-3.99</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="32">
-        <v>18</v>
-      </c>
-      <c r="F23" s="38">
-        <v>-5.45</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="K23">
-        <v>0.08</v>
-      </c>
-      <c r="L23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="32">
-        <v>6598</v>
-      </c>
-      <c r="C24" s="38">
-        <v>-4.1500000000000004</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="39">
-        <v>108.1</v>
-      </c>
-      <c r="F24" s="38">
-        <v>-3.33</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="K24">
-        <v>0.08</v>
-      </c>
-      <c r="L24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3403,7 +2699,7 @@
       <c r="A3" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>29.1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -3418,7 +2714,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>183</v>
@@ -3426,9 +2722,9 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="28">
+        <v>238</v>
+      </c>
+      <c r="B4" s="26">
         <v>85</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -3443,7 +2739,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="6">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>183</v>
@@ -3453,7 +2749,7 @@
       <c r="A5" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>23.3</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3478,7 +2774,7 @@
       <c r="A6" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>87</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3493,7 +2789,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>183</v>
@@ -3501,9 +2797,9 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="29">
+        <v>239</v>
+      </c>
+      <c r="B7" s="27">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -3518,7 +2814,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>183</v>
@@ -3528,7 +2824,7 @@
       <c r="A8" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="27">
         <v>23.2</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -3553,7 +2849,7 @@
       <c r="A9" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="27">
         <v>93.6</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -3578,7 +2874,7 @@
       <c r="A10" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="27">
         <v>61.9</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -3603,7 +2899,7 @@
       <c r="A11" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="27">
         <v>50</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -3612,7 +2908,7 @@
       <c r="D11" s="5">
         <v>80</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="35" t="s">
         <v>183</v>
       </c>
       <c r="F11" s="5"/>
@@ -3620,7 +2916,7 @@
       <c r="H11" s="5">
         <v>100</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="35" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3628,7 +2924,7 @@
       <c r="A12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="27">
         <v>48.5</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -3653,11 +2949,11 @@
       <c r="A13" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="28">
         <v>50</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>183</v>
+      <c r="C13" s="33" t="s">
+        <v>154</v>
       </c>
       <c r="D13" s="14">
         <v>85</v>
@@ -3678,16 +2974,16 @@
       <c r="A14" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="28">
         <v>50</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="48">
+      <c r="C14" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="14">
         <v>80</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="35" t="s">
         <v>183</v>
       </c>
       <c r="F14" s="14"/>
@@ -3695,7 +2991,7 @@
       <c r="H14" s="14">
         <v>100</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="35" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3703,7 +2999,7 @@
       <c r="A15" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="28">
         <v>61.9</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -3728,7 +3024,7 @@
       <c r="A16" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="28">
         <v>30</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -3753,7 +3049,7 @@
       <c r="A17" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="28">
         <v>87</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -3778,7 +3074,7 @@
       <c r="A18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="28">
         <v>87</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -3803,7 +3099,7 @@
       <c r="A19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="28">
         <v>30</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3828,7 +3124,7 @@
       <c r="A20" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="28">
         <v>23.2</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -3853,7 +3149,7 @@
       <c r="A21" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="28">
         <v>48.5</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -3878,11 +3174,11 @@
       <c r="A22" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="27">
         <v>50</v>
       </c>
-      <c r="C22" s="48" t="s">
-        <v>183</v>
+      <c r="C22" s="33" t="s">
+        <v>154</v>
       </c>
       <c r="D22" s="8">
         <v>85</v>
@@ -3903,7 +3199,7 @@
       <c r="A23" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="27">
         <v>23.2</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -3928,7 +3224,7 @@
       <c r="A24" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="27">
         <v>46</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -3950,6 +3246,782 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="48">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F3" s="33">
+        <v>0</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" s="33">
+        <v>1.22</v>
+      </c>
+      <c r="I3" s="33">
+        <v>0</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="39">
+        <v>30.57</v>
+      </c>
+      <c r="F4" s="33">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="35">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="I4" s="33">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="39">
+        <v>42</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="35">
+        <v>0</v>
+      </c>
+      <c r="I5" s="33">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="48">
+        <v>12.9</v>
+      </c>
+      <c r="F6" s="43">
+        <v>0</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="33">
+        <v>0</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="48">
+        <v>11.4</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="33">
+        <v>1.25</v>
+      </c>
+      <c r="I7" s="33">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="48">
+        <v>18.8</v>
+      </c>
+      <c r="F8" s="35">
+        <v>-2.67</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="27">
+        <v>119</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0.64</v>
+      </c>
+      <c r="I9" s="33">
+        <v>0</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="30">
+        <v>123</v>
+      </c>
+      <c r="F10" s="40">
+        <v>0</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" s="40">
+        <v>1.31</v>
+      </c>
+      <c r="I10" s="40">
+        <v>0</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="37">
+        <v>3</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="38">
+        <v>2.78</v>
+      </c>
+      <c r="I11" s="40">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="46">
+        <v>129.6</v>
+      </c>
+      <c r="F12" s="38">
+        <v>-2.65</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="46">
+        <v>1004</v>
+      </c>
+      <c r="C13" s="40">
+        <v>-1.97</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="46">
+        <v>25.1</v>
+      </c>
+      <c r="F13" s="40">
+        <v>-1.97</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="40">
+        <v>0</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="37">
+        <v>4300</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="37">
+        <v>3</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="38">
+        <v>2.78</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="46">
+        <v>4247</v>
+      </c>
+      <c r="C15" s="40">
+        <v>-0.53</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="29">
+        <v>123</v>
+      </c>
+      <c r="F15" s="40">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H15" s="40">
+        <v>1.31</v>
+      </c>
+      <c r="I15" s="40">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="46">
+        <v>4099</v>
+      </c>
+      <c r="C16" s="40">
+        <v>-0.35</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="29">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F16" s="40">
+        <v>0</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" s="40">
+        <v>1.22</v>
+      </c>
+      <c r="I16" s="40">
+        <v>0</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="46">
+        <v>1008</v>
+      </c>
+      <c r="C17" s="40">
+        <v>-0.4</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="46">
+        <v>13</v>
+      </c>
+      <c r="F17" s="40">
+        <v>0</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="I17" s="40">
+        <v>0</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="46">
+        <v>1008</v>
+      </c>
+      <c r="C18" s="47">
+        <v>-0.4</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="46">
+        <v>12.9</v>
+      </c>
+      <c r="F18" s="41">
+        <v>0</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="I18" s="40">
+        <v>0</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="46">
+        <v>925</v>
+      </c>
+      <c r="C19" s="40">
+        <v>-0.41</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="46">
+        <v>11.4</v>
+      </c>
+      <c r="F19" s="40">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="40">
+        <v>1.25</v>
+      </c>
+      <c r="I19" s="40">
+        <v>0</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="46">
+        <v>1095</v>
+      </c>
+      <c r="C20" s="40">
+        <v>-1.86</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="46">
+        <v>12.8</v>
+      </c>
+      <c r="F20" s="33">
+        <v>-1.86</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="K20">
+        <v>0.08</v>
+      </c>
+      <c r="L20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="46">
+        <v>3245</v>
+      </c>
+      <c r="C21" s="40">
+        <v>-1.7</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="46">
+        <v>88.6</v>
+      </c>
+      <c r="F21" s="40">
+        <v>-1.88</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="K21">
+        <v>0.08</v>
+      </c>
+      <c r="L21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="46">
+        <v>1004</v>
+      </c>
+      <c r="C22" s="40">
+        <v>-1.97</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="46">
+        <v>25.1</v>
+      </c>
+      <c r="F22" s="40">
+        <v>-1.97</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="40">
+        <v>0</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="46">
+        <v>1390</v>
+      </c>
+      <c r="C23" s="40">
+        <v>-2.23</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="46">
+        <v>10</v>
+      </c>
+      <c r="F23" s="40">
+        <v>-2.23</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="K23">
+        <v>0.08</v>
+      </c>
+      <c r="L23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="46">
+        <v>4289</v>
+      </c>
+      <c r="C24" s="40">
+        <v>-2.14</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="46">
+        <v>78.7</v>
+      </c>
+      <c r="F24" s="40">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="K24">
+        <v>0.08</v>
+      </c>
+      <c r="L24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3960,7 +4032,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4048,20 +4120,20 @@
         <v>0.01</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="H3" s="27">
-        <v>2020</v>
+      <c r="H3" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="5">
         <v>0.67</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="H4" s="27">
-        <v>2020</v>
+      <c r="H4" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4070,8 +4142,8 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="H5" s="27">
-        <v>2020</v>
+      <c r="H5" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4080,18 +4152,18 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="H6" s="27">
-        <v>2020</v>
+      <c r="H6" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="H7" s="27">
-        <v>2020</v>
+      <c r="H7" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4100,8 +4172,8 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="H8" s="27">
-        <v>2020</v>
+      <c r="H8" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4112,8 +4184,8 @@
         <v>0.01</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="H9" s="27">
-        <v>2020</v>
+      <c r="H9" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4124,8 +4196,8 @@
         <v>0.01</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="H10" s="27">
-        <v>2020</v>
+      <c r="H10" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4134,8 +4206,8 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="H11" s="27">
-        <v>2020</v>
+      <c r="H11" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4148,8 +4220,8 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="27">
-        <v>2020</v>
+      <c r="H12" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4162,8 +4234,8 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="27">
-        <v>2020</v>
+      <c r="H13" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4172,14 +4244,16 @@
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="34">
+      <c r="D14" s="45">
         <v>300</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="31" t="s">
+        <v>235</v>
+      </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="27">
-        <v>2020</v>
+      <c r="H14" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4190,28 +4264,28 @@
         <v>0.01</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="16">
-        <v>8000</v>
-      </c>
+      <c r="D15" s="31"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="27">
-        <v>2020</v>
+      <c r="H15" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="16">
+        <v>0.01</v>
+      </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="27">
-        <v>2020</v>
+      <c r="H16" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -4226,8 +4300,8 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="27">
-        <v>2020</v>
+      <c r="H17" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -4240,8 +4314,8 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="27">
-        <v>2020</v>
+      <c r="H18" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -4254,8 +4328,8 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="27">
-        <v>2020</v>
+      <c r="H19" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -4264,56 +4338,61 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="34">
+      <c r="D20" s="16">
         <v>40000</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="31" t="s">
+        <v>246</v>
+      </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="27">
-        <v>2020</v>
+      <c r="H20" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>5200</v>
       </c>
-      <c r="H21" s="27">
-        <v>2020</v>
+      <c r="E21" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="27">
-        <v>2020</v>
+      <c r="H22" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="36">
         <v>10200</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>240</v>
+      <c r="E23" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="H23" s="27">
-        <v>2020</v>
+      <c r="H23" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="27">
-        <v>2020</v>
+      <c r="H24" s="31">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -4327,7 +4406,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4373,7 +4452,7 @@
         <v>3780</v>
       </c>
       <c r="C3">
-        <v>1985</v>
+        <v>1964</v>
       </c>
       <c r="D3" t="s">
         <v>199</v>
@@ -4381,13 +4460,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4">
         <v>2343</v>
       </c>
       <c r="C4">
-        <v>1980</v>
+        <v>1967</v>
       </c>
       <c r="D4" t="s">
         <v>200</v>
@@ -4401,7 +4480,7 @@
         <v>866</v>
       </c>
       <c r="C5">
-        <v>2010</v>
+        <v>1985</v>
       </c>
       <c r="D5" t="s">
         <v>195</v>
@@ -4415,7 +4494,7 @@
         <v>4695</v>
       </c>
       <c r="C6">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D6" t="s">
         <v>198</v>
@@ -4437,16 +4516,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B8">
         <v>5317</v>
       </c>
       <c r="C8">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4499,7 +4578,7 @@
         <v>892</v>
       </c>
       <c r="C12">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="D12" t="s">
         <v>194</v>
@@ -4513,7 +4592,7 @@
         <v>3241</v>
       </c>
       <c r="C13">
-        <v>1970</v>
+        <v>1985</v>
       </c>
       <c r="D13" t="s">
         <v>204</v>
@@ -4653,58 +4732,58 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
+      <c r="A9" s="22">
         <v>2035</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>16100</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
+      <c r="A10" s="22">
         <v>2040</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>16100</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
+      <c r="A11" s="22">
         <v>2045</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>16100</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
+      <c r="A12" s="22">
         <v>2050</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <v>16100</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>235</v>
       </c>
     </row>
@@ -9780,7 +9859,7 @@
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -10100,7 +10179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10153,10 +10234,10 @@
       <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -10209,10 +10290,10 @@
       <c r="K2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -10564,7 +10645,7 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="20">
         <v>0.50697570000000003</v>
       </c>
       <c r="G10" s="2">
@@ -10605,7 +10686,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="20">
         <v>0.37906770000000001</v>
       </c>
       <c r="G11" s="2">
@@ -10645,7 +10726,7 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="20">
         <v>0.28218300000000002</v>
       </c>
       <c r="G12" s="2">
@@ -10685,7 +10766,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="20">
         <v>0</v>
       </c>
       <c r="G13" s="2">
@@ -10726,7 +10807,7 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>0</v>
       </c>
       <c r="G14" s="2">
@@ -10766,7 +10847,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="20">
         <v>0</v>
       </c>
       <c r="G15" s="2">
@@ -10794,37 +10875,38 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="D16" s="31">
+        <v>0</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="34">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31">
+        <v>0</v>
+      </c>
+      <c r="N16" s="31">
         <v>30</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="31">
         <v>2018</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="31">
         <v>2050</v>
       </c>
     </row>
@@ -10985,7 +11067,7 @@
         <v>2018</v>
       </c>
       <c r="B3" s="13">
-        <v>302.8</v>
+        <v>310.5</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>84</v>
@@ -12720,7 +12802,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C149" s="23"/>
+      <c r="C149" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
